--- a/blocs/incentives/state_specific_data.xlsx
+++ b/blocs/incentives/state_specific_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daltonstewart/Dropbox/Stewart-Guest_Shared/Code/BioLocE/incentives/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daltonstewart/Dropbox/Stewart-Guest_Shared/Code/BLocS/blocs/incentives/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F97D48B-F7E7-D444-A39A-E57A9E3A6EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562E84D7-8A53-9F47-B2AE-0F9D0B081863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{ACA89B21-CD83-0545-80CD-93A328B5FE1A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{ACA89B21-CD83-0545-80CD-93A328B5FE1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,27 +19,27 @@
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$51</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$H$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$O$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$O$2:$O$51</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$A$71:$A$120</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$B$70</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$B$71:$B$120</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$C$70</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$C$71:$C$120</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$A$2:$A$51</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$B$2:$B$51</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$H$2:$H$51</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$C$2:$C$51</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$2:$A$51</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$F$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$F$2:$F$51</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$2:$A$51</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$L$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$L$2:$L$51</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$A$2:$A$51</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$H$2:$H$51</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$A$2:$A$51</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$Q$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$Q$2:$Q$51</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$A$2:$A$51</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$L$1</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$L$2:$L$51</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$A$71:$A$120</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$B$70</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$B$71:$B$120</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2:$B$51</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$C$70</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$C$71:$C$120</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$2:$C$51</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$A$2:$A$51</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$F$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$F$2:$F$51</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$A$2:$A$51</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$H$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="139">
   <si>
     <t>State</t>
   </si>
@@ -237,48 +237,6 @@
     <t>[0, 0.12]</t>
   </si>
   <si>
-    <t>US Regular Gasoline Prices (USD/gal) as of 1/25/2021</t>
-  </si>
-  <si>
-    <t>https://www.eia.gov/petroleum/gasdiesel/</t>
-  </si>
-  <si>
-    <t>accessed 2/4/2021</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t>East Coast (PADD1)</t>
-  </si>
-  <si>
-    <t>New England (PADD1A)</t>
-  </si>
-  <si>
-    <t>Central Atlantic (PADD1B)</t>
-  </si>
-  <si>
-    <t>Lower Atlantic (PADD1B)</t>
-  </si>
-  <si>
-    <t>Midwest (PADD2)</t>
-  </si>
-  <si>
-    <t>Gulf Coast (PADD3)</t>
-  </si>
-  <si>
-    <t>Rocky Mountain (PADD4)</t>
-  </si>
-  <si>
-    <t>West Coast (PADD5)</t>
-  </si>
-  <si>
-    <t>West Coast less California</t>
-  </si>
-  <si>
-    <t>[2.103, 2.934]</t>
-  </si>
-  <si>
     <t>Location Capital Cost Factor (unitless)</t>
   </si>
   <si>
@@ -286,9 +244,6 @@
   </si>
   <si>
     <t>Electricity Price (USD/kWh)</t>
-  </si>
-  <si>
-    <t>Feedstock Prices</t>
   </si>
   <si>
     <t>[0.0895, 0.586]</t>
@@ -512,6 +467,15 @@
   <si>
     <t>kg/gal</t>
   </si>
+  <si>
+    <t>Corn Price (USD/kg)</t>
+  </si>
+  <si>
+    <t>Corn Stover Price (USD/kg)</t>
+  </si>
+  <si>
+    <t>Sugarcane Price (USD/kg)</t>
+  </si>
 </sst>
 </file>
 
@@ -709,723 +673,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="0"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="2.5936789151356082E-2"/>
-                  <c:y val="-9.1721347331583547E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$51</c:f>
-              <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>6.5000000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.9000000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.5000000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.8399999999999992E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.6300000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.4999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.6999999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.4580000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.7500000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.4000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.9249999999999992E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9.5000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.5E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8.929999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8.2500000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>9.8000000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.7500000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7.8100000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7.6999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5.9000000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>6.5000000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2.5000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4.3099999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>7.5999999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>9.9900000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>6.5000000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>4.9500000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>8.5000000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>6.5000000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>7.9000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$H$2:$H$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>0.24</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.9499999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.19</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.248</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.53300000000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.23250000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.23</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.34395999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.27900000000000003</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.33</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.39100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="0.00">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.30499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.24030000000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.26</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.20125000000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.31403999999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.36890499999999998</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.24</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.26300000000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.28599999999999998</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.184</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.17419999999999999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.32750000000000001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.30599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.23805000000000001</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.23824999999999999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.41399999999999998</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.18875</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.40450000000000003</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.36349999999999999</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.23025000000000001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.38500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="35" formatCode="0.00">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.58599999999999997</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.35119</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.22750000000000001</c:v>
-                </c:pt>
-                <c:pt idx="40" formatCode="0.00">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.27400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="42" formatCode="0.00">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.3175</c:v>
-                </c:pt>
-                <c:pt idx="44" formatCode="0.0000">
-                  <c:v>0.30730000000000002</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.16200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.51995199999999997</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.35699999999999998</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.32900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-98FB-5340-A16E-BE55001756DA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1637030016"/>
-        <c:axId val="1655542944"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1637030016"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Income tax rate</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1655542944"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1655542944"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Motor fuel tax rate</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1637030016"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2142,7 +1389,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2398,7 +1645,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$51</c:f>
+              <c:f>Sheet1!$Q$2:$Q$51</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="50"/>
@@ -2864,7 +2111,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3586,7 +2833,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4303,7 +3550,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4657,18 +3904,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.17</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.19</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.17</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4706,7 +3953,7 @@
         <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{FC2F3EC4-C96E-3340-87B8-70D66843A149}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.18</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v/>
             </cx:txData>
           </cx:tx>
@@ -4718,7 +3965,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{BDA3C212-6CA2-2840-BB48-235B6854C402}" formatIdx="1">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.20</cx:f>
+              <cx:f>_xlchart.v1.3</cx:f>
               <cx:v>Income Tax Rate (decimal)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4749,18 +3996,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.12</cx:f>
+        <cx:f>_xlchart.v1.17</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.14</cx:f>
+        <cx:f>_xlchart.v1.19</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.12</cx:f>
+        <cx:f>_xlchart.v1.17</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.16</cx:f>
+        <cx:f>_xlchart.v1.21</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4770,7 +4017,7 @@
         <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{DB5E0DEC-BDD7-E045-B50E-E9E5077B84A0}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.13</cx:f>
+              <cx:f>_xlchart.v1.18</cx:f>
               <cx:v/>
             </cx:txData>
           </cx:tx>
@@ -4782,7 +4029,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{534AC433-1553-B047-BF3B-BCE89F08CC46}" formatIdx="1">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.15</cx:f>
+              <cx:f>_xlchart.v1.20</cx:f>
               <cx:v>Electricity Price (USD/kWh)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4813,10 +4060,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4854,7 +4101,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{9CC3CEB9-8BC1-0D4B-9E6A-350019E85A1C}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>Property Tax Rate (decimal)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4885,82 +4132,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.14</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>Motor fuel tax rate</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-            </a:rPr>
-            <a:t>Motor fuel tax rate</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="clusteredColumn" uniqueId="{841AD1B4-5AC3-6746-BCB8-C3142F68F518}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
-              <cx:v>State Motor Fuel Tax  - at pump (USD/gal)</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:binning intervalClosed="r">
-              <cx:binSize val="0.05000000000000001"/>
-            </cx:binning>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="0"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx5.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.6</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.16</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4998,7 +4173,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{00D4F7D1-BF74-0E44-ACE4-63518A652FA3}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.7</cx:f>
+              <cx:f>_xlchart.v1.15</cx:f>
               <cx:v>Sales Tax Rate (decimal)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5024,15 +4199,15 @@
 </cx:chartSpace>
 </file>
 
-<file path=xl/charts/chartEx6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chartEx5.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5070,7 +4245,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{8ED5D8B4-47C5-E641-AE5A-567D89B76F43}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:f>_xlchart.v1.12</cx:f>
               <cx:v>Location Capital Cost Factor (unitless)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5137,86 +4312,6 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6093,1022 +5188,6 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8141,6 +6220,514 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8656,7 +7243,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9164,7 +7751,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9680,7 +8267,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10188,522 +8775,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
   <cs:axisTitle>
@@ -11722,42 +9793,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5217FB52-3CD2-9947-B561-A739598D615F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
@@ -11790,7 +9825,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11828,7 +9863,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11866,7 +9901,7 @@
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
@@ -11944,7 +9979,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11982,7 +10017,7 @@
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
@@ -12030,16 +10065,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12060,7 +10095,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12074,8 +10109,8 @@
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>234950</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
@@ -12098,7 +10133,7 @@
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
@@ -12147,91 +10182,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>527050</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="10" name="Chart 9">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77613D82-24B6-2F4C-A3A8-695C85C63BDB}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5480050" y="14287500"/>
-              <a:ext cx="5397500" cy="2743200"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
       <xdr:row>84</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>99</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
@@ -12254,7 +10211,7 @@
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
@@ -12308,8 +10265,8 @@
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>112</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -12332,7 +10289,7 @@
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
@@ -13398,13 +11355,14 @@
   <dimension ref="A1:R120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C51"/>
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10.83203125" hidden="1" customWidth="1"/>
     <col min="4" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="8" max="10" width="0" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="10.83203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13419,25 +11377,25 @@
         <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -13446,19 +11404,22 @@
         <v>1</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>59</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -13505,15 +11466,18 @@
       <c r="M2" s="4">
         <v>6.0100000000000001E-2</v>
       </c>
+      <c r="N2" s="2">
+        <v>0.14291338582677166</v>
+      </c>
       <c r="O2" s="2">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="Q2" s="2">
         <v>0.82354978354978503</v>
       </c>
-      <c r="P2" s="2">
+      <c r="R2" s="2">
         <f>7.5537*('methane info'!B15/100)+0.3994</f>
         <v>0.48249069999999999</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
@@ -13557,15 +11521,14 @@
       <c r="M3" s="4">
         <v>0.17100000000000001</v>
       </c>
-      <c r="O3" s="2">
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="Q3" s="2">
         <v>2.5634722222222202</v>
       </c>
-      <c r="P3" s="2">
+      <c r="R3" s="2">
         <f>7.5537*('methane info'!B16/100)+0.3994</f>
         <v>0.50515179999999993</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -13609,18 +11572,18 @@
       <c r="M4" s="4">
         <v>6.5500000000000003E-2</v>
       </c>
+      <c r="N4" s="2">
+        <v>0.18622047244094492</v>
+      </c>
       <c r="O4" s="2">
+        <v>9.8651913243245778E-2</v>
+      </c>
+      <c r="Q4" s="2">
         <v>0.95596153846153598</v>
       </c>
-      <c r="P4" s="2">
+      <c r="R4" s="2">
         <f>7.5537*('methane info'!B17/100)+0.3994</f>
         <v>0.65622580000000008</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>62</v>
-      </c>
-      <c r="R4">
-        <v>2.3919999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
@@ -13664,18 +11627,18 @@
       <c r="M5" s="4">
         <v>5.6399999999999999E-2</v>
       </c>
+      <c r="N5" s="2">
+        <v>0.14527559055118111</v>
+      </c>
       <c r="O5" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q5" s="2">
         <v>0.85480952380952302</v>
       </c>
-      <c r="P5" s="2">
+      <c r="R5" s="2">
         <f>7.5537*('methane info'!B18/100)+0.3994</f>
         <v>0.48249069999999999</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>63</v>
-      </c>
-      <c r="R5">
-        <v>2.3730000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
@@ -13719,18 +11682,18 @@
       <c r="M6" s="4">
         <v>0.13200000000000001</v>
       </c>
+      <c r="N6" s="2">
+        <v>0.1846456692913386</v>
+      </c>
       <c r="O6" s="2">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="Q6" s="2">
         <v>1.0981586402266199</v>
       </c>
-      <c r="P6" s="2">
+      <c r="R6" s="2">
         <f>7.5537*('methane info'!B19/100)+0.3994</f>
         <v>0.61090359999999999</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>64</v>
-      </c>
-      <c r="R6">
-        <v>2.379</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -13774,18 +11737,18 @@
       <c r="M7" s="4">
         <v>7.4700000000000003E-2</v>
       </c>
+      <c r="N7" s="2">
+        <v>0.13464566929133859</v>
+      </c>
       <c r="O7" s="2">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="Q7" s="2">
         <v>0.99910614525139696</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <f>7.5537*('methane info'!B20/100)+0.3994</f>
         <v>0.63356469999999998</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>65</v>
-      </c>
-      <c r="R7">
-        <v>2.5339999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -13829,18 +11792,14 @@
       <c r="M8" s="4">
         <v>0.13769999999999999</v>
       </c>
-      <c r="O8" s="2">
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="Q8" s="2">
         <v>1.11506849315068</v>
       </c>
-      <c r="P8" s="2">
+      <c r="R8" s="2">
         <f>7.5537*('methane info'!B21/100)+0.3994</f>
         <v>0.4673833</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>66</v>
-      </c>
-      <c r="R8" s="3">
-        <v>2.27</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -13884,18 +11843,18 @@
       <c r="M9" s="4">
         <v>7.9500000000000001E-2</v>
       </c>
+      <c r="N9" s="2">
+        <v>0.1610236220472441</v>
+      </c>
       <c r="O9" s="2">
+        <v>0.107</v>
+      </c>
+      <c r="Q9" s="2">
         <v>1.04588235294117</v>
       </c>
-      <c r="P9" s="2">
+      <c r="R9" s="2">
         <f>7.5537*('methane info'!B22/100)+0.3994</f>
         <v>0.4673833</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>67</v>
-      </c>
-      <c r="R9">
-        <v>2.278</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -13939,18 +11898,21 @@
       <c r="M10" s="4">
         <v>7.6499999999999999E-2</v>
       </c>
+      <c r="N10" s="2">
+        <v>0.15472440944881891</v>
+      </c>
       <c r="O10" s="2">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="P10" s="2">
+        <v>4.0454826894677567E-2</v>
+      </c>
+      <c r="Q10" s="2">
         <v>0.82572104018912895</v>
       </c>
-      <c r="P10" s="2">
+      <c r="R10" s="2">
         <f>7.5537*('methane info'!B23/100)+0.3994</f>
         <v>0.474937</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>68</v>
-      </c>
-      <c r="R10">
-        <v>2.1030000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -13994,18 +11956,18 @@
       <c r="M11" s="4">
         <v>0.06</v>
       </c>
+      <c r="N11" s="2">
+        <v>0.15275590551181104</v>
+      </c>
       <c r="O11" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q11" s="2">
         <v>0.90413502109704202</v>
       </c>
-      <c r="P11" s="2">
+      <c r="R11" s="2">
         <f>7.5537*('methane info'!B24/100)+0.3994</f>
         <v>0.474937</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>69</v>
-      </c>
-      <c r="R11">
-        <v>2.2629999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
@@ -14049,18 +12011,17 @@
       <c r="M12" s="4">
         <v>0.26100000000000001</v>
       </c>
-      <c r="O12" s="2">
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2">
+        <v>4.4864072332789565E-2</v>
+      </c>
+      <c r="Q12" s="2">
         <v>2.4517088607594899</v>
       </c>
-      <c r="P12" s="2">
+      <c r="R12" s="2">
         <f>7.5537*('methane info'!B25/100)+0.3994</f>
         <v>0.50515179999999993</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>70</v>
-      </c>
-      <c r="R12">
-        <v>2.9340000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -14104,18 +12065,18 @@
       <c r="M13" s="4">
         <v>6.4699999999999994E-2</v>
       </c>
+      <c r="N13" s="2">
+        <v>0.17480314960629922</v>
+      </c>
       <c r="O13" s="2">
+        <v>0.10087370618133218</v>
+      </c>
+      <c r="Q13" s="2">
         <v>1.0685826771653499</v>
       </c>
-      <c r="P13" s="2">
+      <c r="R13" s="2">
         <f>7.5537*('methane info'!B26/100)+0.3994</f>
         <v>0.55802770000000002</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>71</v>
-      </c>
-      <c r="R13">
-        <v>2.5760000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -14159,18 +12120,18 @@
       <c r="M14" s="4">
         <v>6.8000000000000005E-2</v>
       </c>
+      <c r="N14" s="2">
+        <v>0.13503937007874017</v>
+      </c>
       <c r="O14" s="2">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="Q14" s="2">
         <v>1</v>
       </c>
-      <c r="P14" s="2">
+      <c r="R14" s="2">
         <f>7.5537*('methane info'!B27/100)+0.3994</f>
         <v>0.55802770000000002</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -14214,10 +12175,16 @@
       <c r="M15" s="4">
         <v>7.3800000000000004E-2</v>
       </c>
+      <c r="N15" s="2">
+        <v>0.14291338582677166</v>
+      </c>
       <c r="O15" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q15" s="2">
         <v>0.921747311827955</v>
       </c>
-      <c r="P15" s="2">
+      <c r="R15" s="2">
         <f>7.5537*('methane info'!B28/100)+0.3994</f>
         <v>0.57313510000000001</v>
       </c>
@@ -14263,15 +12230,21 @@
       <c r="M16" s="4">
         <v>6.4500000000000002E-2</v>
       </c>
+      <c r="N16" s="2">
+        <v>0.12992125984251968</v>
+      </c>
       <c r="O16" s="2">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="Q16" s="2">
         <v>1.05122881355932</v>
       </c>
-      <c r="P16" s="2">
+      <c r="R16" s="2">
         <f>7.5537*('methane info'!B29/100)+0.3994</f>
         <v>0.56558140000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -14312,16 +12285,21 @@
       <c r="M17" s="4">
         <v>7.5999999999999998E-2</v>
       </c>
+      <c r="N17" s="2">
+        <v>0.12598425196850396</v>
+      </c>
       <c r="O17" s="2">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="Q17" s="2">
         <v>1.02352459016393</v>
       </c>
-      <c r="P17" s="2">
+      <c r="R17" s="2">
         <f>7.5537*('methane info'!B30/100)+0.3994</f>
         <v>0.67133320000000007</v>
       </c>
-      <c r="Q17" s="5"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -14362,15 +12340,21 @@
       <c r="M18" s="4">
         <v>5.6800000000000003E-2</v>
       </c>
+      <c r="N18" s="2">
+        <v>0.14724409448818898</v>
+      </c>
       <c r="O18" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="Q18" s="2">
         <v>0.874117647058822</v>
       </c>
-      <c r="P18" s="2">
+      <c r="R18" s="2">
         <f>7.5537*('methane info'!B31/100)+0.3994</f>
         <v>0.49004439999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -14411,15 +12395,24 @@
       <c r="M19" s="4">
         <v>5.3499999999999999E-2</v>
       </c>
+      <c r="N19" s="2">
+        <v>0.1456692913385827</v>
+      </c>
       <c r="O19" s="2">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="P19" s="2">
+        <v>4.6407308236128764E-2</v>
+      </c>
+      <c r="Q19" s="2">
         <v>0.847694805194804</v>
       </c>
-      <c r="P19" s="2">
+      <c r="R19" s="2">
         <f>7.5537*('methane info'!B32/100)+0.3994</f>
         <v>0.474937</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -14460,15 +12453,17 @@
       <c r="M20" s="4">
         <v>9.3200000000000005E-2</v>
       </c>
-      <c r="O20" s="2">
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="Q20" s="2">
         <v>1.0423026315789401</v>
       </c>
-      <c r="P20" s="2">
+      <c r="R20" s="2">
         <f>7.5537*('methane info'!B33/100)+0.3994</f>
         <v>0.4673833</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -14509,15 +12504,21 @@
       <c r="M21" s="4">
         <v>8.2299999999999998E-2</v>
       </c>
+      <c r="N21" s="2">
+        <v>0.15944881889763779</v>
+      </c>
       <c r="O21" s="2">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="Q21" s="2">
         <v>0.98325966850828705</v>
       </c>
-      <c r="P21" s="2">
+      <c r="R21" s="2">
         <f>7.5537*('methane info'!B34/100)+0.3994</f>
         <v>0.4673833</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -14558,15 +12559,17 @@
       <c r="M22" s="4">
         <v>0.1489</v>
       </c>
-      <c r="O22" s="2">
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="Q22" s="2">
         <v>1.17718954248365</v>
       </c>
-      <c r="P22" s="2">
+      <c r="R22" s="2">
         <f>7.5537*('methane info'!B35/100)+0.3994</f>
         <v>0.474937</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -14607,15 +12610,21 @@
       <c r="M23" s="4">
         <v>7.0999999999999994E-2</v>
       </c>
+      <c r="N23" s="2">
+        <v>0.13543307086614173</v>
+      </c>
       <c r="O23" s="2">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="Q23" s="2">
         <v>1.03088372093023</v>
       </c>
-      <c r="P23" s="2">
+      <c r="R23" s="2">
         <f>7.5537*('methane info'!B36/100)+0.3994</f>
         <v>0.50515179999999993</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -14656,15 +12665,21 @@
       <c r="M24" s="4">
         <v>7.5200000000000003E-2</v>
       </c>
+      <c r="N24" s="2">
+        <v>0.12637795275590552</v>
+      </c>
       <c r="O24" s="2">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="Q24" s="2">
         <v>1.0664848484848399</v>
       </c>
-      <c r="P24" s="2">
+      <c r="R24" s="2">
         <f>7.5537*('methane info'!B37/100)+0.3994</f>
         <v>0.52781290000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -14705,15 +12720,21 @@
       <c r="M25" s="4">
         <v>0.06</v>
       </c>
+      <c r="N25" s="2">
+        <v>0.14724409448818898</v>
+      </c>
       <c r="O25" s="2">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="Q25" s="2">
         <v>0.91778925619834395</v>
       </c>
-      <c r="P25" s="2">
+      <c r="R25" s="2">
         <f>7.5537*('methane info'!B38/100)+0.3994</f>
         <v>0.53536660000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -14754,15 +12775,21 @@
       <c r="M26" s="4">
         <v>7.22E-2</v>
       </c>
+      <c r="N26" s="2">
+        <v>0.13385826771653545</v>
+      </c>
       <c r="O26" s="2">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="Q26" s="2">
         <v>1.01294685990338</v>
       </c>
-      <c r="P26" s="2">
+      <c r="R26" s="2">
         <f>7.5537*('methane info'!B39/100)+0.3994</f>
         <v>0.57313510000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -14803,15 +12830,21 @@
       <c r="M27" s="4">
         <v>5.1900000000000002E-2</v>
       </c>
+      <c r="N27" s="2">
+        <v>0.16338582677165356</v>
+      </c>
       <c r="O27" s="2">
+        <v>0.10154192194819864</v>
+      </c>
+      <c r="Q27" s="2">
         <v>1.12787581699346</v>
       </c>
-      <c r="P27" s="2">
+      <c r="R27" s="2">
         <f>7.5537*('methane info'!B40/100)+0.3994</f>
         <v>0.56558140000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -14852,15 +12885,21 @@
       <c r="M28" s="4">
         <v>7.5999999999999998E-2</v>
       </c>
+      <c r="N28" s="2">
+        <v>0.13070866141732285</v>
+      </c>
       <c r="O28" s="2">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="Q28" s="2">
         <v>0.93129411764706205</v>
       </c>
-      <c r="P28" s="2">
+      <c r="R28" s="2">
         <f>7.5537*('methane info'!B41/100)+0.3994</f>
         <v>0.61090359999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -14901,15 +12940,17 @@
       <c r="M29" s="4">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="O29" s="2">
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="Q29" s="2">
         <v>1.2103846153846101</v>
       </c>
-      <c r="P29" s="2">
+      <c r="R29" s="2">
         <f>7.5537*('methane info'!B42/100)+0.3994</f>
         <v>0.54292030000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -14950,15 +12991,17 @@
       <c r="M30" s="4">
         <v>0.13420000000000001</v>
       </c>
-      <c r="O30" s="2">
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="Q30" s="2">
         <v>1.0900000000000001</v>
       </c>
-      <c r="P30" s="2">
+      <c r="R30" s="2">
         <f>7.5537*('methane info'!B43/100)+0.3994</f>
         <v>0.4673833</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -14999,15 +13042,21 @@
       <c r="M31" s="4">
         <v>0.1007</v>
       </c>
+      <c r="N31" s="2">
+        <v>0.15354330708661418</v>
+      </c>
       <c r="O31" s="2">
+        <v>0.108</v>
+      </c>
+      <c r="Q31" s="2">
         <v>1.21164062499999</v>
       </c>
-      <c r="P31" s="2">
+      <c r="R31" s="2">
         <f>7.5537*('methane info'!B44/100)+0.3994</f>
         <v>0.4673833</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -15048,15 +13097,21 @@
       <c r="M32" s="4">
         <v>5.8400000000000001E-2</v>
       </c>
+      <c r="N32" s="2">
+        <v>0.15472440944881891</v>
+      </c>
       <c r="O32" s="2">
+        <v>0.10101251037412776</v>
+      </c>
+      <c r="Q32" s="2">
         <v>0.97622641509433805</v>
       </c>
-      <c r="P32" s="2">
+      <c r="R32" s="2">
         <f>7.5537*('methane info'!B45/100)+0.3994</f>
         <v>0.64867209999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -15097,15 +13152,21 @@
       <c r="M33" s="4">
         <v>6.0199999999999997E-2</v>
       </c>
+      <c r="N33" s="2">
+        <v>0.15354330708661418</v>
+      </c>
       <c r="O33" s="2">
+        <v>0.104</v>
+      </c>
+      <c r="Q33" s="2">
         <v>1.1382673267326699</v>
       </c>
-      <c r="P33" s="2">
+      <c r="R33" s="2">
         <f>7.5537*('methane info'!B46/100)+0.3994</f>
         <v>0.4673833</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -15146,15 +13207,21 @@
       <c r="M34" s="4">
         <v>6.3299999999999995E-2</v>
       </c>
+      <c r="N34" s="2">
+        <v>0.16023622047244096</v>
+      </c>
       <c r="O34" s="2">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="Q34" s="2">
         <v>0.884571428571434</v>
       </c>
-      <c r="P34" s="2">
+      <c r="R34" s="2">
         <f>7.5537*('methane info'!B47/100)+0.3994</f>
         <v>0.474937</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -15195,15 +13262,21 @@
       <c r="M35" s="4">
         <v>7.9799999999999996E-2</v>
       </c>
+      <c r="N35" s="2">
+        <v>0.11850393700787401</v>
+      </c>
       <c r="O35" s="2">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="Q35" s="2">
         <v>1.06910869565217</v>
       </c>
-      <c r="P35" s="2">
+      <c r="R35" s="2">
         <f>7.5537*('methane info'!B48/100)+0.3994</f>
         <v>0.56558140000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -15244,15 +13317,21 @@
       <c r="M36" s="4">
         <v>7.0099999999999996E-2</v>
       </c>
+      <c r="N36" s="2">
+        <v>0.14212598425196851</v>
+      </c>
       <c r="O36" s="2">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="Q36" s="2">
         <v>0.93595617529880604</v>
       </c>
-      <c r="P36" s="2">
+      <c r="R36" s="2">
         <f>7.5537*('methane info'!B49/100)+0.3994</f>
         <v>0.4673833</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -15293,15 +13372,21 @@
       <c r="M37" s="4">
         <v>5.3400000000000003E-2</v>
       </c>
+      <c r="N37" s="2">
+        <v>0.13346456692913386</v>
+      </c>
       <c r="O37" s="2">
+        <v>9.4E-2</v>
+      </c>
+      <c r="Q37" s="2">
         <v>0.87760000000000005</v>
       </c>
-      <c r="P37" s="2">
+      <c r="R37" s="2">
         <f>7.5537*('methane info'!B50/100)+0.3994</f>
         <v>0.5882425</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -15342,15 +13427,21 @@
       <c r="M38" s="4">
         <v>5.8599999999999999E-2</v>
       </c>
+      <c r="N38" s="2">
+        <v>0.1673228346456693</v>
+      </c>
       <c r="O38" s="2">
+        <v>0.10148699597777602</v>
+      </c>
+      <c r="Q38" s="2">
         <v>1.1080630630630599</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <f>7.5537*('methane info'!B51/100)+0.3994</f>
         <v>0.54292030000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -15391,15 +13482,21 @@
       <c r="M39" s="4">
         <v>6.8400000000000002E-2</v>
       </c>
+      <c r="N39" s="2">
+        <v>0.15905511811023623</v>
+      </c>
       <c r="O39" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q39" s="2">
         <v>1.07753164556962</v>
       </c>
-      <c r="P39" s="2">
+      <c r="R39" s="2">
         <f>7.5537*('methane info'!B52/100)+0.3994</f>
         <v>0.4673833</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -15440,15 +13537,17 @@
       <c r="M40" s="8">
         <v>0.15390000000000001</v>
       </c>
-      <c r="O40" s="2">
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="Q40" s="2">
         <v>1.12333333333333</v>
       </c>
-      <c r="P40" s="2">
+      <c r="R40" s="2">
         <f>7.5537*('methane info'!B53/100)+0.3994</f>
         <v>0.4673833</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -15489,15 +13588,21 @@
       <c r="M41" s="8">
         <v>6.0999999999999999E-2</v>
       </c>
+      <c r="N41" s="2">
+        <v>0.14527559055118111</v>
+      </c>
       <c r="O41" s="2">
+        <v>0.104</v>
+      </c>
+      <c r="Q41" s="2">
         <v>0.93315508021390203</v>
       </c>
-      <c r="P41" s="2">
+      <c r="R41" s="2">
         <f>7.5537*('methane info'!B54/100)+0.3994</f>
         <v>0.474937</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -15538,15 +13643,21 @@
       <c r="M42" s="8">
         <v>7.7700000000000005E-2</v>
       </c>
+      <c r="N42" s="2">
+        <v>0.12165354330708661</v>
+      </c>
       <c r="O42" s="2">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="Q42" s="2">
         <v>0.99818750000000001</v>
       </c>
-      <c r="P42" s="2">
+      <c r="R42" s="2">
         <f>7.5537*('methane info'!B55/100)+0.3994</f>
         <v>0.55047400000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -15587,15 +13698,21 @@
       <c r="M43" s="4">
         <v>5.6800000000000003E-2</v>
       </c>
+      <c r="N43" s="2">
+        <v>0.14409448818897638</v>
+      </c>
       <c r="O43" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="Q43" s="2">
         <v>0.85303763440860003</v>
       </c>
-      <c r="P43" s="2">
+      <c r="R43" s="2">
         <f>7.5537*('methane info'!B56/100)+0.3994</f>
         <v>0.4673833</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -15636,15 +13753,24 @@
       <c r="M44" s="4">
         <v>5.3900000000000003E-2</v>
       </c>
+      <c r="N44" s="2">
+        <v>0.14606299212598425</v>
+      </c>
       <c r="O44" s="2">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="P44" s="2">
+        <v>2.1495071510795983E-2</v>
+      </c>
+      <c r="Q44" s="2">
         <v>0.90491631799163097</v>
       </c>
-      <c r="P44" s="2">
+      <c r="R44" s="2">
         <f>7.5537*('methane info'!B57/100)+0.3994</f>
         <v>0.52781290000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -15685,15 +13811,21 @@
       <c r="M45" s="4">
         <v>5.8999999999999997E-2</v>
       </c>
+      <c r="N45" s="2">
+        <v>0.15236220472440945</v>
+      </c>
       <c r="O45" s="2">
+        <v>0.10071295241200602</v>
+      </c>
+      <c r="Q45" s="2">
         <v>1.07424778761061</v>
       </c>
-      <c r="P45" s="2">
+      <c r="R45" s="2">
         <f>7.5537*('methane info'!B58/100)+0.3994</f>
         <v>0.51270550000000004</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -15734,15 +13866,17 @@
       <c r="M46" s="4">
         <v>0.1066</v>
       </c>
-      <c r="O46" s="2">
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="Q46" s="2">
         <v>1.06</v>
       </c>
-      <c r="P46" s="2">
+      <c r="R46" s="2">
         <f>7.5537*('methane info'!B59/100)+0.3994</f>
         <v>0.4673833</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -15783,15 +13917,21 @@
       <c r="M47" s="4">
         <v>6.8599999999999994E-2</v>
       </c>
+      <c r="N47" s="2">
+        <v>0.15748031496062992</v>
+      </c>
       <c r="O47" s="2">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="Q47" s="2">
         <v>0.97886292834890798</v>
       </c>
-      <c r="P47" s="2">
+      <c r="R47" s="2">
         <f>7.5537*('methane info'!B60/100)+0.3994</f>
         <v>0.48249069999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -15832,10 +13972,16 @@
       <c r="M48" s="4">
         <v>4.7100000000000003E-2</v>
       </c>
+      <c r="N48" s="2">
+        <v>0.18543307086614175</v>
+      </c>
       <c r="O48" s="2">
+        <v>9.8855017374080478E-2</v>
+      </c>
+      <c r="Q48" s="2">
         <v>1.1595070422535101</v>
       </c>
-      <c r="P48" s="2">
+      <c r="R48" s="2">
         <f>7.5537*('methane info'!B61/100)+0.3994</f>
         <v>0.56558140000000001</v>
       </c>
@@ -15881,10 +14027,16 @@
       <c r="M49" s="4">
         <v>6.4000000000000001E-2</v>
       </c>
+      <c r="N49" s="2">
+        <v>0.15354330708661418</v>
+      </c>
       <c r="O49" s="2">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="Q49" s="2">
         <v>1.00439999999999</v>
       </c>
-      <c r="P49" s="2">
+      <c r="R49" s="2">
         <f>7.5537*('methane info'!B62/100)+0.3994</f>
         <v>0.4673833</v>
       </c>
@@ -15930,14 +14082,19 @@
       <c r="M50" s="4">
         <v>7.3300000000000004E-2</v>
       </c>
+      <c r="N50" s="2">
+        <v>0.12913385826771653</v>
+      </c>
       <c r="O50" s="2">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="Q50" s="2">
         <v>1.0709574468084999</v>
       </c>
-      <c r="P50" s="2">
+      <c r="R50" s="2">
         <f>7.5537*('methane info'!B63/100)+0.3994</f>
         <v>0.56558140000000001</v>
       </c>
-      <c r="R50" s="2"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
@@ -15980,10 +14137,16 @@
       <c r="M51" s="4">
         <v>6.7100000000000007E-2</v>
       </c>
+      <c r="N51" s="2">
+        <v>0.13346456692913386</v>
+      </c>
       <c r="O51" s="2">
+        <v>9.5922391195530504E-2</v>
+      </c>
+      <c r="Q51" s="2">
         <v>1.0227906976744101</v>
       </c>
-      <c r="P51" s="2">
+      <c r="R51" s="2">
         <f>7.5537*('methane info'!B64/100)+0.3994</f>
         <v>0.48249069999999999</v>
       </c>
@@ -15999,11 +14162,11 @@
       <c r="D52" s="7"/>
       <c r="E52" s="1"/>
       <c r="F52" s="9" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="G52" s="9"/>
       <c r="H52" s="1" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52">
@@ -16014,18 +14177,18 @@
         <v>54</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="O52" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P52" s="16" t="s">
-        <v>98</v>
+        <v>63</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R52" s="16" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="18">
@@ -16033,7 +14196,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="D53" s="18">
-        <f t="shared" ref="D53:P53" si="4">_xlfn.PERCENTILE.INC(D2:D51,0.5)</f>
+        <f t="shared" ref="D53:R53" si="4">_xlfn.PERCENTILE.INC(D2:D51,0.5)</f>
         <v>0.87</v>
       </c>
       <c r="E53" s="18">
@@ -16061,11 +14224,13 @@
         <v>6.8500000000000005E-2</v>
       </c>
       <c r="N53" s="18"/>
-      <c r="O53" s="16">
+      <c r="O53" s="18"/>
+      <c r="P53" s="18"/>
+      <c r="Q53" s="16">
         <f t="shared" si="4"/>
         <v>1.0231576439191701</v>
       </c>
-      <c r="P53" s="16">
+      <c r="R53" s="16">
         <f t="shared" si="4"/>
         <v>0.50515179999999993</v>
       </c>
@@ -16087,7 +14252,7 @@
         <v>0</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D70" s="1"/>
     </row>
@@ -16542,7 +14707,7 @@
       <c r="D120" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N60:O110">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N60:Q110">
     <sortCondition ref="N60:N110"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16566,69 +14731,69 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:11" ht="80" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="K3" s="11"/>
     </row>
@@ -16898,7 +15063,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -16906,7 +15071,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -16925,7 +15090,7 @@
         <v>1.4</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -17000,7 +15165,7 @@
         <v>1.4</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -17339,27 +15504,27 @@
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="G1" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="G2">
         <f>C10</f>
@@ -17368,10 +15533,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C3">
         <v>0.57999999999999996</v>
@@ -17380,7 +15545,7 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="G3">
         <f>C3</f>
@@ -17389,10 +15554,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C4">
         <v>0.22</v>
@@ -17401,7 +15566,7 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="G4">
         <f>C13</f>
@@ -17410,10 +15575,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C5" s="2">
         <v>0.5</v>
@@ -17422,7 +15587,7 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="G5">
         <f>C7</f>
@@ -17431,10 +15596,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="C6" s="2">
         <v>0.9</v>
@@ -17443,7 +15608,7 @@
         <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="G6">
         <f>C4</f>
@@ -17452,10 +15617,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C7">
         <v>0.66</v>
@@ -17464,7 +15629,7 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="G7">
         <f>C13</f>
@@ -17473,10 +15638,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C8">
         <v>0.26</v>
@@ -17485,7 +15650,7 @@
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="G8">
         <f>C8</f>
@@ -17494,10 +15659,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C9">
         <v>0.47</v>
@@ -17506,7 +15671,7 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="G9">
         <f>C9</f>
@@ -17515,10 +15680,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C10">
         <v>0.46</v>
@@ -17527,7 +15692,7 @@
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="G10" s="2">
         <f>C5</f>
@@ -17536,10 +15701,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C11">
         <v>0.55000000000000004</v>
@@ -17548,7 +15713,7 @@
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="G11">
         <f>C10</f>
@@ -17557,10 +15722,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C12">
         <v>0.47</v>
@@ -17569,7 +15734,7 @@
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G12" s="2">
         <f>C6</f>
@@ -17578,10 +15743,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C13">
         <v>0.36</v>
@@ -17590,7 +15755,7 @@
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="G13">
         <f>C13</f>
@@ -17602,7 +15767,7 @@
         <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="G14">
         <f>C7</f>
@@ -17611,16 +15776,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="E15" t="s">
         <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="G15">
         <f>C7</f>
@@ -17629,7 +15794,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="B16">
         <v>0.55000000000000004</v>
@@ -17642,7 +15807,7 @@
         <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="G16">
         <f>C7</f>
@@ -17651,7 +15816,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B17">
         <v>0.21</v>
@@ -17664,7 +15829,7 @@
         <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="G17">
         <f>C11</f>
@@ -17673,7 +15838,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B18">
         <v>0.48</v>
@@ -17692,7 +15857,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="B19">
         <v>0.86</v>
@@ -17711,7 +15876,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B20">
         <v>0.63</v>
@@ -17724,7 +15889,7 @@
         <v>21</v>
       </c>
       <c r="F20" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="G20">
         <f>C8</f>
@@ -17733,7 +15898,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B21">
         <v>0.25</v>
@@ -17746,7 +15911,7 @@
         <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="G21">
         <f>C9</f>
@@ -17755,7 +15920,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B22">
         <v>0.45</v>
@@ -17768,7 +15933,7 @@
         <v>23</v>
       </c>
       <c r="F22" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="G22">
         <f>C8</f>
@@ -17777,7 +15942,7 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B23">
         <v>0.44</v>
@@ -17790,7 +15955,7 @@
         <v>24</v>
       </c>
       <c r="F23" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="G23">
         <f>C7</f>
@@ -17799,7 +15964,7 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B24">
         <v>0.53</v>
@@ -17812,7 +15977,7 @@
         <v>25</v>
       </c>
       <c r="F24" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="G24">
         <f>C7</f>
@@ -17821,7 +15986,7 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B25">
         <v>0.45</v>
@@ -17834,7 +15999,7 @@
         <v>52</v>
       </c>
       <c r="F25" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="G25">
         <f>C10</f>
@@ -17843,7 +16008,7 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B26">
         <v>0.35</v>
@@ -17865,14 +16030,14 @@
         <v>27</v>
       </c>
       <c r="F27" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="G27">
         <f>C13</f>
         <v>0.36</v>
       </c>
       <c r="R27" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
@@ -17893,7 +16058,7 @@
         <v>29</v>
       </c>
       <c r="F29" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="G29">
         <f>C13</f>
@@ -17905,13 +16070,13 @@
         <v>18000</v>
       </c>
       <c r="B30" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="E30" t="s">
         <v>30</v>
       </c>
       <c r="F30" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="G30">
         <f>C8</f>
@@ -17924,13 +16089,13 @@
         <v>18000000</v>
       </c>
       <c r="B31" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="E31" t="s">
         <v>31</v>
       </c>
       <c r="F31" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="G31">
         <f>C9</f>
@@ -17942,7 +16107,7 @@
         <v>32</v>
       </c>
       <c r="F32" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="G32">
         <f>C13</f>
@@ -17955,16 +16120,16 @@
         <v>3960000</v>
       </c>
       <c r="B33" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="C33" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="E33" t="s">
         <v>33</v>
       </c>
       <c r="F33" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="G33">
         <f>C8</f>
@@ -17977,16 +16142,16 @@
         <v>16200000</v>
       </c>
       <c r="B34" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="C34" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="E34" t="s">
         <v>34</v>
       </c>
       <c r="F34" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="G34">
         <f>C10</f>
@@ -17999,10 +16164,10 @@
         <v>11880000</v>
       </c>
       <c r="B35" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="C35" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="E35" s="21" t="s">
         <v>35</v>
@@ -18017,7 +16182,7 @@
         <v>36</v>
       </c>
       <c r="F36" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="G36">
         <f>C9</f>
@@ -18029,13 +16194,13 @@
         <v>350000000</v>
       </c>
       <c r="B37" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="E37" t="s">
         <v>37</v>
       </c>
       <c r="F37" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="G37">
         <f>C11</f>
@@ -18047,7 +16212,7 @@
         <v>38</v>
       </c>
       <c r="F38" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="G38">
         <f>C13</f>
@@ -18060,16 +16225,16 @@
         <v>1.1314285714285714E-2</v>
       </c>
       <c r="B39" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="C39" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="E39" t="s">
         <v>39</v>
       </c>
       <c r="F39" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="G39">
         <f>C9</f>
@@ -18082,16 +16247,16 @@
         <v>4.6285714285714284E-2</v>
       </c>
       <c r="B40" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="C40" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="E40" t="s">
         <v>40</v>
       </c>
       <c r="F40" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="G40">
         <f>C8</f>
@@ -18104,16 +16269,16 @@
         <v>3.3942857142857143E-2</v>
       </c>
       <c r="B41" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="C41" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="E41" t="s">
         <v>41</v>
       </c>
       <c r="F41" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="G41">
         <f>C10</f>
@@ -18135,7 +16300,7 @@
         <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="G43">
         <f>C10</f>
@@ -18147,7 +16312,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="G44">
         <f>C12</f>
@@ -18159,7 +16324,7 @@
         <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="G45">
         <f>C13</f>
@@ -18171,7 +16336,7 @@
         <v>46</v>
       </c>
       <c r="F46" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="G46">
         <f>C8</f>
@@ -18183,7 +16348,7 @@
         <v>47</v>
       </c>
       <c r="F47" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="G47">
         <f>C9</f>
@@ -18195,14 +16360,14 @@
         <v>48</v>
       </c>
       <c r="F48" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="G48">
         <f>C13</f>
         <v>0.36</v>
       </c>
       <c r="R48" s="22" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="5:7" x14ac:dyDescent="0.2">
@@ -18210,7 +16375,7 @@
         <v>49</v>
       </c>
       <c r="F49" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="G49">
         <f>C9</f>
@@ -18222,7 +16387,7 @@
         <v>50</v>
       </c>
       <c r="F50" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="G50">
         <f>C7</f>
@@ -18234,7 +16399,7 @@
         <v>51</v>
       </c>
       <c r="F51" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="G51">
         <f>C13</f>
@@ -18243,12 +16408,12 @@
     </row>
     <row r="75" spans="13:20" x14ac:dyDescent="0.2">
       <c r="T75" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77" spans="13:20" x14ac:dyDescent="0.2">
       <c r="M77" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
